--- a/Data Files/Profile/create_profile_datafile.xlsx
+++ b/Data Files/Profile/create_profile_datafile.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1EDCF254-1ECF-4C00-8BC7-07D476580E8C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2F0867C9-A77F-4DD9-B0AB-C9AE8C2F070B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,19 +58,19 @@
     <t>[Profile Name]: Saved.</t>
   </si>
   <si>
-    <t>Duplicate [Profile Name]</t>
-  </si>
-  <si>
     <t>Alan Chan Kai Loon</t>
   </si>
   <si>
-    <t>randomWord</t>
-  </si>
-  <si>
     <t>Add profile name success</t>
   </si>
   <si>
     <t>Add profile name success with filter search</t>
+  </si>
+  <si>
+    <t>randomWordAction</t>
+  </si>
+  <si>
+    <t>Duplicate [Profile Name] Ensure the profile name is exist in listing</t>
   </si>
 </sst>
 </file>
@@ -106,8 +106,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,14 +397,14 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -411,7 +417,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -425,7 +431,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -442,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -451,21 +457,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -482,7 +488,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -499,7 +505,7 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
